--- a/biology/Botanique/Vigne_des_renards/Vigne_des_renards.xlsx
+++ b/biology/Botanique/Vigne_des_renards/Vigne_des_renards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vitis vulpina, la vigne des rivages[1], est une espèce de plantes appartenant à la famille des Vitaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vitis vulpina, la vigne des rivages, est une espèce de plantes appartenant à la famille des Vitaceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Vitis cordifolia Michx.
-Vitis riparia Michx[1].</t>
+Vitis riparia Michx.</t>
         </is>
       </c>
     </row>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de l'est de l'Amérique du Nord, elle est naturalisée en région méditerranéenne où elle s'hybride avec la vigne sauvage (Vitis vinifera subsp. sylvestris)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de l'est de l'Amérique du Nord, elle est naturalisée en région méditerranéenne où elle s'hybride avec la vigne sauvage (Vitis vinifera subsp. sylvestris).
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle fut utilisée comme porte-greffe pour sa résistance au phylloxera[1].
-On l'utilise également comme plante grimpante ornementale et ses fruits servent à faire des gelées en Amérique du Nord[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle fut utilisée comme porte-greffe pour sa résistance au phylloxera.
+On l'utilise également comme plante grimpante ornementale et ses fruits servent à faire des gelées en Amérique du Nord.</t>
         </is>
       </c>
     </row>
